--- a/docs/FeasibilityAnalysis/MSD2020_FLsImplemented.xlsx
+++ b/docs/FeasibilityAnalysis/MSD2020_FLsImplemented.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20215163\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD2021_AutoRef\AutonomousReferee\docs\FeasibilityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226F35E4-3689-4572-A887-299B88820A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5BCF6-9FA5-44DD-8A49-E790DB671D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FLs_Implemented" sheetId="1" r:id="rId1"/>
+    <sheet name="CodeBlocks_Analysis" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>Task</t>
   </si>
@@ -178,6 +180,66 @@
   </si>
   <si>
     <t>RuleBook - Law</t>
+  </si>
+  <si>
+    <t>Reference: Integration codes version3 in documents/Design Team</t>
+  </si>
+  <si>
+    <t>Sl No.</t>
+  </si>
+  <si>
+    <t>Code Block</t>
+  </si>
+  <si>
+    <t>Area of Interest</t>
+  </si>
+  <si>
+    <t>Classify teams</t>
+  </si>
+  <si>
+    <t>Create Mask</t>
+  </si>
+  <si>
+    <t>Decision making</t>
+  </si>
+  <si>
+    <t>Detect ball</t>
+  </si>
+  <si>
+    <t>main_task_script</t>
+  </si>
+  <si>
+    <t>zone of field</t>
+  </si>
+  <si>
+    <t>player detection</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>AOI - 3D matrix with information on inner and outer circles separately</t>
+  </si>
+  <si>
+    <t>Player detection output matrix updated with Team A pixel values and Team B pixel values</t>
+  </si>
+  <si>
+    <t>original RGB image returned in maskedRGBImage</t>
+  </si>
+  <si>
+    <t>Number of violators, confidence of violation, centroid of overlapping ara of each detected player with AOI</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>gameState 1-5 (Kickoff, throw in, corner, goal kick, free kick)
+All other players from awarded team are &gt;2m away from ball
+All defenders are &gt;3m away from ball 
+(except one defender in throw in and corner)
+gameState 6 (dropped ball)
+if a player is &lt;1m away from ball, award free kick to opposing team
+determine if all players are &gt;1m away from ball, own penalty area allowed</t>
   </si>
 </sst>
 </file>
@@ -376,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,10 +484,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,14 +505,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:F24"/>
     </sheetView>
   </sheetViews>
@@ -840,17 +912,17 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="14" t="s">
@@ -858,69 +930,69 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="14" t="s">
@@ -928,69 +1000,69 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="14" t="s">
@@ -998,51 +1070,51 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="15" t="s">
         <v>27</v>
       </c>
@@ -1128,19 +1200,19 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -1148,59 +1220,59 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
       <c r="F33" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="14" t="s">
@@ -1208,89 +1280,89 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="20" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="14" t="s">
@@ -1298,77 +1370,91 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
       <c r="F48" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="16" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B13:B18"/>
@@ -1385,22 +1471,153 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="E43:E50"/>
     <mergeCell ref="D43:D50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A405C9-0149-4D3E-BB84-B6F5374C0F9D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
+        <v>4</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C747E32B-F1EE-4A2C-AFB3-CA47ED64E6AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/FeasibilityAnalysis/MSD2020_FLsImplemented.xlsx
+++ b/docs/FeasibilityAnalysis/MSD2020_FLsImplemented.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD2021_AutoRef\AutonomousReferee\docs\FeasibilityAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/probook/Documents/GitHub/AutonomousReferee/AutonomousReferee/docs/FeasibilityAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D5BCF6-9FA5-44DD-8A49-E790DB671D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9740AA-F54F-474D-A9D0-6664A4A6F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3120" windowWidth="32860" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FLs_Implemented" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -240,6 +240,30 @@
 gameState 6 (dropped ball)
 if a player is &lt;1m away from ball, award free kick to opposing team
 determine if all players are &gt;1m away from ball, own penalty area allowed</t>
+  </si>
+  <si>
+    <t>Image processing and circle finding for ball detection. Returns centers, a 1x2 array with X and Y coordinates of ball center.</t>
+  </si>
+  <si>
+    <t>Requires manual thresholding based on ball color.</t>
+  </si>
+  <si>
+    <t>Image processing and centroid finding for player detection. Returns binary player/nonplayer region detection.</t>
+  </si>
+  <si>
+    <t>Assumes players to be 'dark' areas of image. Applies simple centroid computation of region to define player position.</t>
+  </si>
+  <si>
+    <t>Identifies field zones and estimates meter to pixel ratio. Performs simple segmentation using field lines. Finds connected regions within field lines.</t>
+  </si>
+  <si>
+    <t>Seems fragile and highly influenced by manually-specified field dimensions.</t>
+  </si>
+  <si>
+    <t>Performs simple test on input image to check for violation of player distance rules for requested game scenario.</t>
+  </si>
+  <si>
+    <t>Slow runtime!</t>
   </si>
 </sst>
 </file>
@@ -484,27 +508,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -514,6 +517,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,17 +825,17 @@
       <selection activeCell="F7" sqref="F7:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="73.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -831,7 +855,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -847,7 +871,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -863,7 +887,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -879,7 +903,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -895,7 +919,7 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -911,215 +935,215 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="26"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="26"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
       <c r="F22" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
       <c r="F24" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1135,7 +1159,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
@@ -1151,7 +1175,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
@@ -1167,7 +1191,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
@@ -1183,7 +1207,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>37</v>
       </c>
@@ -1199,262 +1223,248 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
       <c r="F31" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+    <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
       <c r="F36" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
       <c r="F37" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
       <c r="F38" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
       <c r="F41" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
       <c r="F42" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
       <c r="F44" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="24"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
       <c r="F45" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="24"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
+    <row r="50" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="16" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B30:B34"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B13:B18"/>
@@ -1471,6 +1481,20 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="E43:E50"/>
     <mergeCell ref="D43:D50"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1482,127 +1506,143 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="97.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.6640625" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="C7" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="C8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="C9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="C10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,7 +1656,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/FeasibilityAnalysis/MSD2020_FLsImplemented.xlsx
+++ b/docs/FeasibilityAnalysis/MSD2020_FLsImplemented.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/probook/Documents/GitHub/AutonomousReferee/AutonomousReferee/docs/FeasibilityAnalysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD2021_AutoRef\AutonomousReferee\docs\FeasibilityAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9740AA-F54F-474D-A9D0-6664A4A6F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E0DF3C-C16D-4A00-83D8-0795B9F502F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3120" windowWidth="32860" windowHeight="17740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FLs_Implemented" sheetId="1" r:id="rId1"/>
     <sheet name="CodeBlocks_Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Recommendations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
   <si>
     <t>Task</t>
   </si>
@@ -265,12 +265,69 @@
   <si>
     <t>Slow runtime!</t>
   </si>
+  <si>
+    <t>Decision Making function</t>
+  </si>
+  <si>
+    <t>Player classification</t>
+  </si>
+  <si>
+    <t>Player detection</t>
+  </si>
+  <si>
+    <t>Zone of field</t>
+  </si>
+  <si>
+    <t>Distance violation check (task)</t>
+  </si>
+  <si>
+    <t>Ball detect, locate</t>
+  </si>
+  <si>
+    <t>1.	the code block involves an iteration of the entire image pixel by pixel, which may reduce the speed of the algorithm. There might be faster methods to realize the player detection.
+2.	The code block also has the capability to detect the centers and boundaries of each player. They are not used in the current system, however, it is possible to modify them into output if applicable.</t>
+  </si>
+  <si>
+    <t>Player localization</t>
+  </si>
+  <si>
+    <t>1.The color mask filtering can be made robust to be used for wider range of ball colors.
+2. The robustness of the structuring element used in the morphological operations can be checked.
+Requires manual thresholding based on ball color.</t>
+  </si>
+  <si>
+    <t>The code block involves an iteration of the entire image pixel by pixel, which may reduce the speed of the algorithm. There might be faster methods to realize the player detection. 
+The code block also has the capability to detect the centers and boundaries of each player. They are not used in the current system, however, it is possible to modify them into output if applicable. 
+Assumes players to be 'dark' areas of image. Applies simple centroid computation of region to define player position.</t>
+  </si>
+  <si>
+    <t>Metre-to-pixel ratio could have some uncertainty due to assumption that the field dimensions are ideal (exactly 22 x 14 m). In reality, imperfections in the field dimensions would be overlooked, and this would lead to errors in the calculation  
+Seems fragile and highly influenced by manually-specified field dimensions.</t>
+  </si>
+  <si>
+    <t>Confidence of violation (given to counter the effect of perspective distortion) measure has a trade-off—it could lead to actual violators also being ignored. The reasoning behind using such a confidence measure was that it would be better to have a slightly lenient system that detects gross violations and lets off minor violations than an overly strict system that could lead to unnecessary interruptions in the game.  </t>
+  </si>
+  <si>
+    <t>1.The color mask filtering can be made robust to be used for wider range of player top marker colors.
+2. The robustness of the structuring element used in the morphological operations can be checked.
+The possibility and effectiveness of using other features of the player robots like shape, robot markers and number markers can be looked into. For the current scope, since a top camera was used as the vision system, top markers seemed sensible and has been found to be effective. However, in case of mobile vision systems or side cameras, other features may also need to be used for efficient detection and classification. 
+Distortion correction of the players, especially closer to the penalty area needs to be looked into. In the current scope of work with a top camera, distortion effects were not so prominent. Hence, distortion correction was not looked into much. However, in cases when players of opposite teams are nearby, and their pixels overlap each other due to distortion, there is a possibility of players being classified into the wrong teams in step3 of the algorithm. A possible solution to this problem can be by using distortion correction of the player pixels. Additional Information on the features as discussed in remark 1, or other camera inputs can also be looked into for this problem.</t>
+  </si>
+  <si>
+    <t>1. Although Matlab was chosen because of various reasons, the frequency of the integrated code is slow because of the Matlab implementaion. Other programming languages can be looked into for an increased speed of execution.</t>
+  </si>
+  <si>
+    <t>Task/skill/code block</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +357,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -315,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -458,11 +522,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,26 +666,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,17 +994,17 @@
       <selection activeCell="F7" sqref="F7:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="73.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="73.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -855,7 +1024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -871,7 +1040,7 @@
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
@@ -887,7 +1056,7 @@
       </c>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
@@ -903,7 +1072,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -919,7 +1088,7 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -935,215 +1104,215 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="21"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
       <c r="F21" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>32</v>
       </c>
@@ -1159,7 +1328,7 @@
       </c>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
@@ -1175,7 +1344,7 @@
       </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
@@ -1191,7 +1360,7 @@
       </c>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>36</v>
       </c>
@@ -1207,7 +1376,7 @@
       </c>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>37</v>
       </c>
@@ -1223,248 +1392,262 @@
       </c>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="26"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="21"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
       <c r="F38" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
       <c r="F41" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A42" s="24"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
       <c r="F42" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24" t="s">
+    <row r="43" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="24"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+    <row r="50" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="16" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E13:E18"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C43:C50"/>
+    <mergeCell ref="B43:B50"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B35:B42"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B13:B18"/>
@@ -1481,20 +1664,6 @@
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="E43:E50"/>
     <mergeCell ref="D43:D50"/>
-    <mergeCell ref="C43:C50"/>
-    <mergeCell ref="B43:B50"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1505,25 +1674,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A405C9-0149-4D3E-BB84-B6F5374C0F9D}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" customWidth="1"/>
-    <col min="5" max="6" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>52</v>
       </c>
@@ -1537,7 +1706,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1549,7 +1718,7 @@
       </c>
       <c r="D3" s="18"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -1561,7 +1730,7 @@
       </c>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -1573,7 +1742,7 @@
       </c>
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -1588,7 +1757,7 @@
       </c>
       <c r="E6" s="17"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -1602,7 +1771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -1616,7 +1785,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -1630,7 +1799,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -1652,12 +1821,120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C747E32B-F1EE-4A2C-AFB3-CA47ED64E6AC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.85546875" style="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>